--- a/survey.xlsx
+++ b/survey.xlsx
@@ -57465,6 +57465,1162 @@
         <v>45203.261701388888</v>
       </c>
     </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>638320128139293755</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Fernando Pérez</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>X AI &amp; Software</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M601" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N601" t="inlineStr">
+        <is>
+          <t>No dietary restrictions</t>
+        </is>
+      </c>
+      <c r="Q601" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U601" t="inlineStr">
+        <is>
+          <t>None of the above</t>
+        </is>
+      </c>
+      <c r="AB601" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC601" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD601" s="2">
+        <v>45203.444594907407</v>
+      </c>
+      <c r="AE601" s="2">
+        <v>45203.445520833331</v>
+      </c>
+      <c r="AH601" s="2">
+        <v>45203.445520833331</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>638320137335506615</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Davide Gualdi</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>X AI &amp; Software</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD602" s="2">
+        <v>45203.455243055556</v>
+      </c>
+      <c r="AH602" s="2">
+        <v>45203.4555787037</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>638320137760202382</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Davide Gualdi</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>X AI &amp; Software</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J603" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M603" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N603" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q603" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U603" t="inlineStr">
+        <is>
+          <t>None of the above</t>
+        </is>
+      </c>
+      <c r="AB603" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC603" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD603" s="2">
+        <v>45203.455740740741</v>
+      </c>
+      <c r="AE603" s="2">
+        <v>45203.456157407411</v>
+      </c>
+      <c r="AH603" s="2">
+        <v>45203.456157407411</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>638320151178228651</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Beatriz Martinez</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>X AI &amp; Software</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M604" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N604" t="inlineStr">
+        <is>
+          <t>No dietary restrictions</t>
+        </is>
+      </c>
+      <c r="Q604" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U604" t="inlineStr">
+        <is>
+          <t>None of the above</t>
+        </is>
+      </c>
+      <c r="AB604" t="inlineStr">
+        <is>
+          <t>Gen AI</t>
+        </is>
+      </c>
+      <c r="AC604" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD604" s="2">
+        <v>45203.471261574072</v>
+      </c>
+      <c r="AE604" s="2">
+        <v>45203.471678240741</v>
+      </c>
+      <c r="AH604" s="2">
+        <v>45203.471678240741</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>638320206024437484</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Alvin Ng</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>X Ventures</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M605" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N605" t="inlineStr">
+        <is>
+          <t>No dietary restrictions</t>
+        </is>
+      </c>
+      <c r="Q605" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="R605" t="inlineStr">
+        <is>
+          <t>Low code automation with Office 365</t>
+        </is>
+      </c>
+      <c r="S605" t="inlineStr">
+        <is>
+          <t>How you can use Office 365 to build a working business, no engineering required</t>
+        </is>
+      </c>
+      <c r="T605" t="inlineStr">
+        <is>
+          <t>30 minutes</t>
+        </is>
+      </c>
+      <c r="U605" t="inlineStr">
+        <is>
+          <t>None of the above</t>
+        </is>
+      </c>
+      <c r="AB605" t="inlineStr">
+        <is>
+          <t>Nah, anything goes</t>
+        </is>
+      </c>
+      <c r="AC605" t="inlineStr">
+        <is>
+          <t>Nah, all good!</t>
+        </is>
+      </c>
+      <c r="AD605" s="2">
+        <v>45203.534745370373</v>
+      </c>
+      <c r="AE605" s="2">
+        <v>45203.536423611113</v>
+      </c>
+      <c r="AH605" s="2">
+        <v>45203.536423611113</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>638320309165738446</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Stuart Roth</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>X AI &amp; Software</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>Engineering Principle</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>Pittsburgh</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M606" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N606" t="inlineStr">
+        <is>
+          <t>No dietary restrictions</t>
+        </is>
+      </c>
+      <c r="Q606" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U606" t="inlineStr">
+        <is>
+          <t>None of the above</t>
+        </is>
+      </c>
+      <c r="AB606" t="inlineStr">
+        <is>
+          <t>Open to anything</t>
+        </is>
+      </c>
+      <c r="AC606" t="inlineStr">
+        <is>
+          <t>Based in Pittsburgh, but will be in DC anyway due to case work so don't need separate travel</t>
+        </is>
+      </c>
+      <c r="AD606" s="2">
+        <v>45203.654120370367</v>
+      </c>
+      <c r="AE606" s="2">
+        <v>45203.72074074074</v>
+      </c>
+      <c r="AH606" s="2">
+        <v>45203.72074074074</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>638320336578869050</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Vrajaraj Ramakrishnan</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>X Ventures</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>Vegetarian</t>
+        </is>
+      </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M607" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N607" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q607" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U607" t="inlineStr">
+        <is>
+          <t>None of the above</t>
+        </is>
+      </c>
+      <c r="AB607" t="inlineStr">
+        <is>
+          <t>Building production-grade generative AI applications</t>
+        </is>
+      </c>
+      <c r="AC607" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD607" s="2">
+        <v>45203.685844907406</v>
+      </c>
+      <c r="AE607" s="2">
+        <v>45203.686724537038</v>
+      </c>
+      <c r="AH607" s="2">
+        <v>45203.686724537038</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>638320493175404033</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Lu Li</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>X AI &amp; Software</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>Senior Engineer</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>San Deigo</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J608" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M608" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N608" t="inlineStr">
+        <is>
+          <t>No dietary restrictions</t>
+        </is>
+      </c>
+      <c r="Q608" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U608" t="inlineStr">
+        <is>
+          <t>None of the above</t>
+        </is>
+      </c>
+      <c r="W608" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB608" t="inlineStr">
+        <is>
+          <t>Generative AI, AI guardrails, AR and VR, green technology, NLP</t>
+        </is>
+      </c>
+      <c r="AC608" t="inlineStr">
+        <is>
+          <t>Maybe add a fun twist by incorporating tech-themed games like quizzes, challenges, or scavenger hunts</t>
+        </is>
+      </c>
+      <c r="AD608" s="2">
+        <v>45203.867094907408</v>
+      </c>
+      <c r="AE608" s="2">
+        <v>45204.252708333333</v>
+      </c>
+      <c r="AH608" s="2">
+        <v>45204.252708333333</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>638321073769533234</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Chauhan manish</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>X Delivery</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>Engineering Lead</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M609" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N609" t="inlineStr">
+        <is>
+          <t>No dietary restrictions</t>
+        </is>
+      </c>
+      <c r="Q609" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U609" t="inlineStr">
+        <is>
+          <t>None of the above</t>
+        </is>
+      </c>
+      <c r="W609" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AB609" t="inlineStr">
+        <is>
+          <t>Tech</t>
+        </is>
+      </c>
+      <c r="AC609" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD609" s="2">
+        <v>45204.539074074077</v>
+      </c>
+      <c r="AE609" s="2">
+        <v>45204.540381944447</v>
+      </c>
+      <c r="AH609" s="2">
+        <v>45204.540381944447</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>638321078315234958</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Rajat Verma</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>X Delivery</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer, QA</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>Gurgaon</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>Vegetarian</t>
+        </is>
+      </c>
+      <c r="J610" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M610" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N610" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q610" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U610" t="inlineStr">
+        <is>
+          <t>None of the above</t>
+        </is>
+      </c>
+      <c r="AB610" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="AC610" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="AD610" s="2">
+        <v>45204.544340277775</v>
+      </c>
+      <c r="AE610" s="2">
+        <v>45204.545451388891</v>
+      </c>
+      <c r="AH610" s="2">
+        <v>45204.545451388891</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>638321148872151520</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Takahiro Okada</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>X Ventures</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>Lead Product Manager</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J611" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M611" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N611" t="inlineStr">
+        <is>
+          <t>No dietary restrictions</t>
+        </is>
+      </c>
+      <c r="Q611" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U611" t="inlineStr">
+        <is>
+          <t>None of the above</t>
+        </is>
+      </c>
+      <c r="AB611" t="inlineStr">
+        <is>
+          <t>Generative AI, internet of things, mobile network like 5G, neuroscience</t>
+        </is>
+      </c>
+      <c r="AC611" t="inlineStr">
+        <is>
+          <t>thank you for your preparation!</t>
+        </is>
+      </c>
+      <c r="AD611" s="2">
+        <v>45204.626006944447</v>
+      </c>
+      <c r="AE611" s="2">
+        <v>45204.627569444441</v>
+      </c>
+      <c r="AH611" s="2">
+        <v>45204.627569444441</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>638321198346518082</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Amanda Aschenbrenner</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>X AI &amp; Software</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>Principal - Engineering</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J612" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M612" t="inlineStr">
+        <is>
+          <t>Others ( please specify, including allergies)</t>
+        </is>
+      </c>
+      <c r="N612" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q612" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD612" s="2">
+        <v>45204.683263888888</v>
+      </c>
+      <c r="AH612" s="2">
+        <v>45204.683877314812</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>